--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39A215-9C04-4614-86A0-288E359586D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC72BB7-F3A0-49AA-8D5D-8210564EBF3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Aantal</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>Sensor</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>LL3301FF065QJ</t>
+  </si>
+  <si>
+    <t>0,52</t>
+  </si>
+  <si>
+    <t>90122-0124</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Header 8-pin 90° Male</t>
+  </si>
+  <si>
+    <t>Header 8-pin 90° Female</t>
+  </si>
+  <si>
+    <t>Header 4-pin Male</t>
+  </si>
+  <si>
+    <t>1,31</t>
+  </si>
+  <si>
+    <t>SSW-104-02-T-D-RA</t>
+  </si>
+  <si>
+    <t>0,90</t>
   </si>
 </sst>
 </file>
@@ -125,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -436,17 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -505,6 +538,77 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC72BB7-F3A0-49AA-8D5D-8210564EBF3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50883EF-121D-4405-A54D-6CB18FD9F2F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="-12015" yWindow="5310" windowWidth="22395" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Aantal</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>0,99</t>
-  </si>
-  <si>
     <t>EKMC1607112</t>
   </si>
   <si>
-    <t>8,54</t>
-  </si>
-  <si>
     <t>Eenheidsprijs</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>LL3301FF065QJ</t>
   </si>
   <si>
-    <t>0,52</t>
-  </si>
-  <si>
     <t>90122-0124</t>
   </si>
   <si>
@@ -96,13 +87,16 @@
     <t>Header 4-pin Male</t>
   </si>
   <si>
-    <t>1,31</t>
-  </si>
-  <si>
     <t>SSW-104-02-T-D-RA</t>
   </si>
   <si>
-    <t>0,90</t>
+    <t>PSU AC/DC 12V, 2A DIN rail</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2815636</t>
   </si>
 </sst>
 </file>
@@ -138,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,8 +153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -173,7 +168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,22 +464,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -514,102 +509,122 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="E3" s="1">
+        <v>0.99</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="E4" s="1">
+        <v>8.5399999999999991</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="E6" s="1">
+        <v>1.31</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50883EF-121D-4405-A54D-6CB18FD9F2F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B9DB8-9339-4958-89B7-511E31F3F689}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12015" yWindow="5310" windowWidth="22395" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Aantal</t>
   </si>
@@ -97,16 +97,35 @@
   </si>
   <si>
     <t xml:space="preserve">	2815636</t>
+  </si>
+  <si>
+    <t>LED, RGB, Red, Green, Blue, SMD, 2.4mm</t>
+  </si>
+  <si>
+    <t>ASMB-MTB1-0A3A2</t>
+  </si>
+  <si>
+    <t>Wire-To-Board Terminal Block, 2.5 mm, 12 Ways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	PTSA0,5/12-2,5-Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,8 +173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -168,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,22 +484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -516,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -536,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -556,7 +576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -576,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -596,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -607,30 +627,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
+        <v>0.38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>1.44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
         <v>16.690000000000001</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B9DB8-9339-4958-89B7-511E31F3F689}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E56ED2-056B-48D8-8A5A-FCFD8E976D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="22395" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Aantal</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t xml:space="preserve">	2815636</t>
-  </si>
-  <si>
     <t>LED, RGB, Red, Green, Blue, SMD, 2.4mm</t>
   </si>
   <si>
@@ -108,7 +105,19 @@
     <t>Wire-To-Board Terminal Block, 2.5 mm, 12 Ways</t>
   </si>
   <si>
-    <t xml:space="preserve">	PTSA0,5/12-2,5-Z</t>
+    <t>farnell</t>
+  </si>
+  <si>
+    <t>TPS54308DDCT -  DC-DC Switching, 4.5V-28Vin, 1V-28V/3 A out, TSOT-23-6</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck</t>
+  </si>
+  <si>
+    <t>SMD Multilayer Ceramic Capacitor, 10 µF, 50 V, 1210</t>
+  </si>
+  <si>
+    <t>PTSA0,5/12-2,5-Z</t>
   </si>
 </sst>
 </file>
@@ -157,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -484,22 +493,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -536,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -556,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -576,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -596,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -616,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -627,15 +637,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -647,15 +657,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -667,15 +677,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
+      <c r="C11">
+        <v>2815636</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -685,6 +695,37 @@
       </c>
       <c r="F11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>3007333</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1.56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>2094047</v>
       </c>
     </row>
   </sheetData>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E56ED2-056B-48D8-8A5A-FCFD8E976D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968788FA-01C0-41C0-9E5A-2BAB4BAA2B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="22395" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="15375" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Aantal</t>
   </si>
@@ -111,20 +111,62 @@
     <t>TPS54308DDCT -  DC-DC Switching, 4.5V-28Vin, 1V-28V/3 A out, TSOT-23-6</t>
   </si>
   <si>
-    <t>Main 3,3Buck</t>
-  </si>
-  <si>
     <t>SMD Multilayer Ceramic Capacitor, 10 µF, 50 V, 1210</t>
   </si>
   <si>
     <t>PTSA0,5/12-2,5-Z</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck U1</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck Cin</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck Cout</t>
+  </si>
+  <si>
+    <t>Panasonic 33μF 35V dc Hybrid Conductive Polymer Aluminium</t>
+  </si>
+  <si>
+    <t>rs-online</t>
+  </si>
+  <si>
+    <t>Wurth Type 1064 SMD Inductor Ferrite Core, 9.1 μH ±30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">744-4980 </t>
+  </si>
+  <si>
+    <t>Main 3,3Buck L1</t>
+  </si>
+  <si>
+    <t>131-1959</t>
+  </si>
+  <si>
+    <t>SMD Resistor, 0805, 22 kohm, MC 1% Series, 150 V, Thick Film, 100 mW</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck Rfbb</t>
+  </si>
+  <si>
+    <t>SMD Chip Resistor, 0603, 100 kohm, 1% Series, 50 V, Thick Film, 63 mW</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck Rfbt</t>
+  </si>
+  <si>
+    <t>SMD Multilayer Ceramic Capacitor, 0.1 µF, 50 V, 0603</t>
+  </si>
+  <si>
+    <t>Main 3,3Buck Cbst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +177,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,8 +230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F19" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -493,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +554,7 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -665,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -714,7 +762,7 @@
         <v>1.56</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,13 +770,123 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2094047</v>
       </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>3.44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>9332820</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>9330402</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>0.751</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>2688469</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2.62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968788FA-01C0-41C0-9E5A-2BAB4BAA2B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16533083-BB92-4EB5-A2D0-7C6A0031BEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="15375" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Aantal</t>
   </si>
@@ -117,15 +117,6 @@
     <t>PTSA0,5/12-2,5-Z</t>
   </si>
   <si>
-    <t>Main 3,3Buck U1</t>
-  </si>
-  <si>
-    <t>Main 3,3Buck Cin</t>
-  </si>
-  <si>
-    <t>Main 3,3Buck Cout</t>
-  </si>
-  <si>
     <t>Panasonic 33μF 35V dc Hybrid Conductive Polymer Aluminium</t>
   </si>
   <si>
@@ -138,28 +129,49 @@
     <t xml:space="preserve">744-4980 </t>
   </si>
   <si>
-    <t>Main 3,3Buck L1</t>
-  </si>
-  <si>
     <t>131-1959</t>
   </si>
   <si>
     <t>SMD Resistor, 0805, 22 kohm, MC 1% Series, 150 V, Thick Film, 100 mW</t>
   </si>
   <si>
-    <t>Main 3,3Buck Rfbb</t>
-  </si>
-  <si>
     <t>SMD Chip Resistor, 0603, 100 kohm, 1% Series, 50 V, Thick Film, 63 mW</t>
   </si>
   <si>
-    <t>Main 3,3Buck Rfbt</t>
-  </si>
-  <si>
     <t>SMD Multilayer Ceramic Capacitor, 0.1 µF, 50 V, 0603</t>
   </si>
   <si>
-    <t>Main 3,3Buck Cbst</t>
+    <t>Main Buck Cbst</t>
+  </si>
+  <si>
+    <t>Main Buck Cout</t>
+  </si>
+  <si>
+    <t>Main Buck Cin</t>
+  </si>
+  <si>
+    <t>Main Buck U1</t>
+  </si>
+  <si>
+    <t>7447798271 -  Power Inductor (SMD), 27 µH</t>
+  </si>
+  <si>
+    <t>Main 5Buck L1</t>
+  </si>
+  <si>
+    <t>CPF0603F13K7C1 -  SMD Chip Resistor, 0603, 13.7 kohm</t>
+  </si>
+  <si>
+    <t>Main Buck Rfbt</t>
+  </si>
+  <si>
+    <t>Main 3.3Buck L2</t>
+  </si>
+  <si>
+    <t>Main 5buck Rfbb1</t>
+  </si>
+  <si>
+    <t>Main 3.3Buck Rfbb2</t>
   </si>
 </sst>
 </file>
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +566,7 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,7 +759,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -762,12 +774,12 @@
         <v>1.56</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -782,27 +794,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>1.4119999999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,19 +822,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>3.44</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>9332820</v>
@@ -842,7 +854,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>9330402</v>
@@ -862,7 +874,7 @@
         <v>0.751</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -870,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>2688469</v>
@@ -882,7 +894,47 @@
         <v>2.62</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>1800291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3.77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
+      </c>
+      <c r="C20">
+        <v>1527596</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16533083-BB92-4EB5-A2D0-7C6A0031BEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C0AEE-9DC0-4AF2-932F-541ED91F8CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Aantal</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Main 3.3Buck Rfbb2</t>
+  </si>
+  <si>
+    <t>485-3409</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero W Basic Pack</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -242,15 +251,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G29" totalsRowShown="0">
+  <autoFilter ref="A1:G29" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
     <tableColumn id="3" xr3:uid="{75722793-B08A-436B-9DF0-BD88371AF49D}" name="Nummer"/>
     <tableColumn id="4" xr3:uid="{553AB222-29DB-4A65-A19A-B58A86DBE00E}" name="Website"/>
     <tableColumn id="5" xr3:uid="{0BA64E5D-3546-49D5-AB4A-F84ED8FC9984}" name="Eenheidsprijs"/>
     <tableColumn id="7" xr3:uid="{94D76481-D96D-408A-BAF3-87852F59EF6E}" name="Board"/>
+    <tableColumn id="6" xr3:uid="{86E02E9B-F881-49BE-9FB3-A2BA063B47E6}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +579,7 @@
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +598,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -606,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -626,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -646,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -666,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -686,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -697,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -717,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -737,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -757,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -777,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -797,7 +810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -817,7 +830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -837,7 +850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -935,6 +948,26 @@
       </c>
       <c r="F20" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>26.67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C0AEE-9DC0-4AF2-932F-541ED91F8CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFEDBA-95F4-4CF8-8C71-B0A88EF45F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Aantal</t>
   </si>
@@ -96,15 +96,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>LED, RGB, Red, Green, Blue, SMD, 2.4mm</t>
-  </si>
-  <si>
-    <t>ASMB-MTB1-0A3A2</t>
-  </si>
-  <si>
-    <t>Wire-To-Board Terminal Block, 2.5 mm, 12 Ways</t>
-  </si>
-  <si>
     <t>farnell</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>SMD Multilayer Ceramic Capacitor, 10 µF, 50 V, 1210</t>
   </si>
   <si>
-    <t>PTSA0,5/12-2,5-Z</t>
-  </si>
-  <si>
     <t>Panasonic 33μF 35V dc Hybrid Conductive Polymer Aluminium</t>
   </si>
   <si>
@@ -181,6 +169,21 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD 2220 PLCC4 Tricolor</t>
+  </si>
+  <si>
+    <t>ASMB-KTF0-0A306</t>
+  </si>
+  <si>
+    <t>Fixed Terminal Blocks PTSA 0.5/12-2.5-Z 12P 2.5MM 45DEG</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,20 +569,20 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,10 +602,10 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -638,8 +644,11 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -658,8 +667,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -678,8 +690,11 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -698,8 +713,11 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -710,38 +728,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1990106</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1.44</v>
@@ -749,8 +770,11 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -770,195 +794,195 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>3007333</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1.56</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>2094047</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2.2000000000000002</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1.4119999999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>3.44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>9332820</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0.52500000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>9330402</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0.751</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>2688469</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2.62</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1800291</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3.77</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>1527596</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0.16800000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFEDBA-95F4-4CF8-8C71-B0A88EF45F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4A7DB8-313F-4847-AE01-DEB911F01FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Aantal</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Header 8-pin 90° Female</t>
-  </si>
-  <si>
-    <t>Header 4-pin Male</t>
   </si>
   <si>
     <t>SSW-104-02-T-D-RA</t>
@@ -254,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G29" totalsRowShown="0">
-  <autoFilter ref="A1:G29" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -566,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -622,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -668,12 +665,12 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -691,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -714,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -722,10 +719,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0.22</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -733,22 +742,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1990106</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0.22</v>
+        <v>1.44</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,42 +765,39 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1990106</v>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>2815636</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>1.44</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>2815636</v>
+        <v>3007333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>16.690000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -802,16 +808,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>3007333</v>
+        <v>2094047</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1.56</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,57 +827,57 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
-        <v>2094047</v>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2.2000000000000002</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
       <c r="E14">
-        <v>1.4119999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>9332820</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>3.44</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -882,16 +888,16 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>9332820</v>
+        <v>9330402</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>0.52500000000000002</v>
+        <v>0.751</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -902,36 +908,36 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>9330402</v>
+        <v>2688469</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>0.751</v>
+        <v>2.62</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>2688469</v>
+        <v>1800291</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2.62</v>
+        <v>3.77</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -939,19 +945,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>1800291</v>
+        <v>1527596</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>3.77</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -959,39 +965,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>1527596</v>
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0.16800000000000001</v>
+        <v>26.67</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>26.67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\school\KULeuven\jaar1\semester1\Elektronische tech Labo\Light_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basileberckmoes/GitHub/Light_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4A7DB8-313F-4847-AE01-DEB911F01FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B457D4B-3386-9F4E-B6D6-8E69A6CFC8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,20 +566,20 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="65.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -622,7 +622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -645,7 +645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -668,7 +668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -691,7 +691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -860,7 +860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -900,7 +900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -920,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -960,7 +960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basileberckmoes/GitHub/Light_system/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B457D4B-3386-9F4E-B6D6-8E69A6CFC8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE8137-9BC4-49CE-AFB8-D041E27427F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Aantal</t>
   </si>
@@ -181,13 +181,61 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>licht</t>
+  </si>
+  <si>
+    <t>MOC3021M</t>
+  </si>
+  <si>
+    <t>MCT2EM</t>
+  </si>
+  <si>
+    <t>BT136-600D/DG,127 -  Triac</t>
+  </si>
+  <si>
+    <t>RC2512JK-0747KL</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>ERJP08F3300V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0,152</t>
+  </si>
+  <si>
+    <t>TNPW12061K00BEEN</t>
+  </si>
+  <si>
+    <t>MCWR12X9101FTL</t>
+  </si>
+  <si>
+    <t>0,0168</t>
+  </si>
+  <si>
+    <t>B250C1500G-E4/51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2889115</t>
+  </si>
+  <si>
+    <t>Wire-To-Board Terminal Block, 2.5 mm, 2 Ways</t>
+  </si>
+  <si>
+    <t>ARDUINO Development Board, Arduino Nano,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1848691</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +252,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,16 +282,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,8 +310,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G28" totalsRowShown="0">
-  <autoFilter ref="A1:G28" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+    <sortCondition descending="1" ref="F1:F33"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -267,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,23 +625,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,64 +664,87 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.99</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>8.5399999999999991</v>
+        <v>0.52</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>0.52</v>
+        <v>1.31</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -668,21 +753,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>1.31</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -691,21 +776,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9</v>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0.22</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -714,21 +799,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1990106</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0.22</v>
+        <v>1.44</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -737,70 +822,67 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1990106</v>
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>3007333</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>2815636</v>
+        <v>9330402</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>16.690000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>3007333</v>
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1.56</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -820,172 +902,359 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>2688469</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1.4119999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1527596</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3.44</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>9332820</v>
+        <v>1800291</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>0.52500000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>9330402</v>
+        <v>9332820</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>0.751</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>2688469</v>
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>2.62</v>
+        <v>3.44</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>1800291</v>
+        <v>2815636</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>3.77</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1527596</v>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
       <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>26.67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>1792951</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E19">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
       <c r="E20">
-        <v>26.67</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>2074972</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1021365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0.39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2453311</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0.436</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>9236007</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>1750830</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2910290</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2447549</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>16.29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" display="https://be.farnell.com/on-semiconductor/mct2em/optocoupler-transistor-4-2kv-dip/dp/2453311" xr:uid="{0A678C4C-9CC2-40B4-A93C-4D941AAABA26}"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://be.farnell.com/on-semiconductor/mct2em/optocoupler-transistor-4-2kv-dip/dp/2453311" xr:uid="{D4345E49-2759-4918-A182-5D98D401A1B5}"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://be.farnell.com/vishay/tnpw12061k00been/resistor-thin-film-1kohm-250mw/dp/2910290" xr:uid="{65AD1F2A-2541-4D1E-BC86-CEE58F2B85D6}"/>
+    <hyperlink ref="C26" r:id="rId4" display="https://be.farnell.com/vishay/tnpw12061k00been/resistor-thin-film-1kohm-250mw/dp/2910290" xr:uid="{8778885D-E6E0-4423-84E8-A4A6FACEA3A9}"/>
+    <hyperlink ref="C27" r:id="rId5" display="https://be.farnell.com/multicomp/mcwr12x9101ftl/res-9k1-1-0-25w-thick-film/dp/2447549" xr:uid="{A42902D1-9DED-43AD-A1D8-5F85684CD8EE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE8137-9BC4-49CE-AFB8-D041E27427F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A8938-E12A-43F8-83C5-6A3A0FB3D01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="3090" yWindow="1140" windowWidth="15375" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BasileBerckmoes\Documents\GitHub\Light_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basileberckmoes/GitHub/Light_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A8938-E12A-43F8-83C5-6A3A0FB3D01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C81E70-944C-3943-B0C6-D0AB4EDCFE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1140" windowWidth="15375" windowHeight="14460" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Aantal</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Standard LEDs - SMD 2220 PLCC4 Tricolor</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Fixed Terminal Blocks PTSA 0.5/12-2.5-Z 12P 2.5MM 45DEG</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>licht</t>
   </si>
   <si>
@@ -229,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve">	1848691</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -294,7 +291,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,7 +326,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,20 +625,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -681,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -704,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -727,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -750,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -773,18 +770,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -796,15 +793,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>1990106</v>
@@ -819,10 +816,10 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -841,8 +838,11 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -861,8 +861,11 @@
       <c r="F10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -881,8 +884,11 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -901,8 +907,11 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -921,8 +930,11 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -942,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -961,8 +973,11 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -981,8 +996,11 @@
       <c r="F16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1001,8 +1019,11 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1022,7 +1043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1041,13 +1062,16 @@
       <c r="F19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>1792951</v>
@@ -1061,13 +1085,16 @@
       <c r="F20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>2074972</v>
@@ -1079,15 +1106,15 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1021365</v>
@@ -1099,15 +1126,15 @@
         <v>0.39</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>2453311</v>
@@ -1119,15 +1146,15 @@
         <v>0.436</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>9236007</v>
@@ -1136,18 +1163,18 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1750830</v>
@@ -1156,18 +1183,18 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
         <v>2910290</v>
@@ -1179,15 +1206,15 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3">
         <v>2447549</v>
@@ -1196,21 +1223,21 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1219,18 +1246,18 @@
         <v>16.29</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1239,7 +1266,7 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/BOM Light_system.xlsx
+++ b/BOM Light_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basileberckmoes/GitHub/Light_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C81E70-944C-3943-B0C6-D0AB4EDCFE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F771B-FC57-E740-B6AD-E3342D75AE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>Aantal</t>
   </si>
@@ -198,9 +198,6 @@
     <t>ERJP08F3300V</t>
   </si>
   <si>
-    <t xml:space="preserve">	0,152</t>
-  </si>
-  <si>
     <t>TNPW12061K00BEEN</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>totaal</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -307,12 +314,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G33" totalsRowShown="0">
-  <autoFilter ref="A1:G33" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:H33" totalsRowShown="0">
+  <autoFilter ref="A1:H33" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
     <sortCondition descending="1" ref="F1:F33"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
     <tableColumn id="3" xr3:uid="{75722793-B08A-436B-9DF0-BD88371AF49D}" name="Nummer"/>
@@ -320,6 +327,9 @@
     <tableColumn id="5" xr3:uid="{0BA64E5D-3546-49D5-AB4A-F84ED8FC9984}" name="Eenheidsprijs"/>
     <tableColumn id="7" xr3:uid="{94D76481-D96D-408A-BAF3-87852F59EF6E}" name="Board"/>
     <tableColumn id="6" xr3:uid="{86E02E9B-F881-49BE-9FB3-A2BA063B47E6}" name="Status"/>
+    <tableColumn id="8" xr3:uid="{3318CFEF-64D3-BA47-9ECE-64A96D31D853}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,7 +648,7 @@
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +670,11 @@
       <c r="G1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -678,10 +691,14 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -701,10 +718,14 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>85.399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -724,10 +745,14 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -747,10 +772,14 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -770,10 +799,14 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -793,10 +826,14 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -816,10 +853,14 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -839,10 +880,14 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -862,10 +907,14 @@
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H10">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -885,10 +934,14 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>2.8239999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -908,10 +961,14 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H12">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -931,10 +988,14 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H13">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>26.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -953,8 +1014,12 @@
       <c r="F14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -974,10 +1039,14 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -997,10 +1066,14 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H16">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1020,10 +1093,14 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1042,8 +1119,12 @@
       <c r="F18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1063,15 +1144,19 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H19">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>1792951</v>
@@ -1086,10 +1171,14 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1108,8 +1197,12 @@
       <c r="F21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>5.3100000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1128,8 +1221,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1148,8 +1245,12 @@
       <c r="F23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1168,8 +1269,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1182,19 +1287,23 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="s">
-        <v>55</v>
+      <c r="E25">
+        <v>0.152</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3">
         <v>2910290</v>
@@ -1208,13 +1317,17 @@
       <c r="F26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>1.6919999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3">
         <v>2447549</v>
@@ -1223,21 +1336,25 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.16799999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1248,16 +1365,20 @@
       <c r="F28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1267,6 +1388,43 @@
       </c>
       <c r="F29" t="s">
         <v>48</v>
+      </c>
+      <c r="H29">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f>Table3[[#This Row],[Aantal]]*Table3[[#This Row],[Eenheidsprijs]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <f>SUM(Table3[Column1])</f>
+        <v>232.066</v>
       </c>
     </row>
   </sheetData>
